--- a/data/trans_orig/P58-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P58-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC00F1B2-D300-4362-8A52-7CAB7DDD184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D7B13B1-89C2-46CA-922F-134BEFE9CF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{491287F1-18A1-4C19-BBD7-B3F4BF90E227}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9C182A6-7E44-4ABA-A0C1-39B95DFAC471}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="830">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,2422 +77,2458 @@
     <t>9,89%</t>
   </si>
   <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>Resto de España</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2015 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>Resto de España</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>5,85%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>94,05%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2015 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
 </sst>
 </file>
@@ -2904,7 +2940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A37420-E77E-4AD7-8F8F-C4FB160D4813}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7C0F7E-FB2D-42C4-9302-CFE54021BE54}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3494,10 +3530,10 @@
         <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -3506,13 +3542,13 @@
         <v>19316</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -3521,13 +3557,13 @@
         <v>48579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3578,13 @@
         <v>284391</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -3557,13 +3593,13 @@
         <v>309691</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>603</v>
@@ -3572,13 +3608,13 @@
         <v>594082</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3799,13 @@
         <v>319357</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>675</v>
@@ -3778,13 +3814,13 @@
         <v>635748</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,7 +3876,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3852,13 +3888,13 @@
         <v>20157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -3867,13 +3903,13 @@
         <v>21232</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -3882,13 +3918,13 @@
         <v>41389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,10 +3942,10 @@
         <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3918,13 +3954,13 @@
         <v>14513</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -3933,13 +3969,13 @@
         <v>33176</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3990,13 @@
         <v>164488</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>173</v>
@@ -4064,7 +4100,7 @@
         <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4073,10 +4109,10 @@
         <v>5026</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>153</v>
@@ -4181,7 +4217,7 @@
         <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>504</v>
@@ -4190,13 +4226,13 @@
         <v>502970</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,7 +4288,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4264,13 +4300,13 @@
         <v>80383</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -4279,13 +4315,13 @@
         <v>92463</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>110</v>
@@ -4294,13 +4330,13 @@
         <v>172845</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4351,13 @@
         <v>52916</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="H29" s="7">
         <v>61</v>
@@ -4476,7 +4512,7 @@
         <v>203</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -4485,13 +4521,13 @@
         <v>32454</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -4506,7 +4542,7 @@
         <v>207</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4557,13 @@
         <v>68342</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H33" s="7">
         <v>38</v>
@@ -4536,7 +4572,7 @@
         <v>46584</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>212</v>
@@ -4557,7 +4593,7 @@
         <v>215</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4608,13 @@
         <v>643780</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>688</v>
@@ -4587,13 +4623,13 @@
         <v>704473</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M34" s="7">
         <v>1362</v>
@@ -4602,13 +4638,13 @@
         <v>1348253</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4712,13 @@
         <v>204415</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7">
         <v>141</v>
@@ -4691,13 +4727,13 @@
         <v>224604</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M36" s="7">
         <v>268</v>
@@ -4706,13 +4742,13 @@
         <v>429019</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4763,13 @@
         <v>272955</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H37" s="7">
         <v>210</v>
@@ -4742,13 +4778,13 @@
         <v>249635</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M37" s="7">
         <v>372</v>
@@ -4757,13 +4793,13 @@
         <v>522590</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4814,13 @@
         <v>2799173</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>2938</v>
@@ -4793,13 +4829,13 @@
         <v>2904958</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M38" s="7">
         <v>5855</v>
@@ -4808,13 +4844,13 @@
         <v>5704131</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,7 +4906,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4894,7 +4930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA8DAD8-3802-4C1F-B641-A926111E9C7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FD2861-0A4A-4451-A29A-72320714AD08}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4911,7 +4947,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5016,39 +5052,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,39 +5097,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,39 +5142,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,39 +5187,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5236,13 @@
         <v>18383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5215,13 +5251,13 @@
         <v>21107</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -5230,13 +5266,13 @@
         <v>39491</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5287,13 @@
         <v>65420</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -5266,13 +5302,13 @@
         <v>53370</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -5281,13 +5317,13 @@
         <v>118789</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5338,13 @@
         <v>421724</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -5317,13 +5353,13 @@
         <v>449288</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>862</v>
@@ -5332,13 +5368,13 @@
         <v>871012</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,10 +5445,10 @@
         <v>149</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -5421,13 +5457,13 @@
         <v>9579</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -5436,13 +5472,13 @@
         <v>13593</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5493,13 @@
         <v>22464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5472,13 +5508,13 @@
         <v>31858</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -5487,13 +5523,13 @@
         <v>54322</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5544,13 @@
         <v>297568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>292</v>
@@ -5523,13 +5559,13 @@
         <v>299583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>597</v>
@@ -5538,13 +5574,13 @@
         <v>597151</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5648,13 @@
         <v>76348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -5627,13 +5663,13 @@
         <v>61196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -5642,13 +5678,13 @@
         <v>137544</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5699,13 @@
         <v>78764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -5678,13 +5714,13 @@
         <v>84510</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -5693,13 +5729,13 @@
         <v>163274</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5750,13 @@
         <v>513608</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H18" s="7">
         <v>528</v>
@@ -5729,13 +5765,13 @@
         <v>530490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M18" s="7">
         <v>1054</v>
@@ -5744,13 +5780,13 @@
         <v>1044098</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,7 +5842,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5818,13 +5854,13 @@
         <v>6963</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5833,13 +5869,13 @@
         <v>6910</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -5848,13 +5884,13 @@
         <v>13873</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5905,13 @@
         <v>15897</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -5884,13 +5920,13 @@
         <v>18005</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -5899,13 +5935,13 @@
         <v>33902</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>335</v>
+        <v>99</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5956,13 @@
         <v>189758</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H22" s="7">
         <v>196</v>
@@ -5935,13 +5971,13 @@
         <v>194676</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M22" s="7">
         <v>379</v>
@@ -5950,13 +5986,13 @@
         <v>384434</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6060,13 @@
         <v>4955</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6039,13 +6075,13 @@
         <v>9435</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>56</v>
+        <v>350</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -6054,13 +6090,13 @@
         <v>14391</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6111,13 @@
         <v>26601</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -6090,13 +6126,13 @@
         <v>19981</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6105,13 +6141,13 @@
         <v>46582</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6162,13 @@
         <v>242425</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>364</v>
       </c>
       <c r="H26" s="7">
         <v>250</v>
@@ -6141,13 +6177,13 @@
         <v>250615</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M26" s="7">
         <v>494</v>
@@ -6156,13 +6192,13 @@
         <v>493040</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>368</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,7 +6254,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6230,13 +6266,13 @@
         <v>75503</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H28" s="7">
         <v>85</v>
@@ -6245,13 +6281,13 @@
         <v>101288</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="M28" s="7">
         <v>143</v>
@@ -6260,13 +6296,13 @@
         <v>176791</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>371</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6317,13 @@
         <v>84858</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>378</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -6296,13 +6332,13 @@
         <v>83368</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M29" s="7">
         <v>86</v>
@@ -6311,13 +6347,13 @@
         <v>168226</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6368,13 @@
         <v>502427</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H30" s="7">
         <v>506</v>
@@ -6347,13 +6383,13 @@
         <v>509198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>384</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M30" s="7">
         <v>1025</v>
@@ -6362,13 +6398,13 @@
         <v>1011624</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6472,13 @@
         <v>23060</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -6451,13 +6487,13 @@
         <v>21859</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>399</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -6466,13 +6502,13 @@
         <v>44919</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>106</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6523,13 @@
         <v>65219</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>397</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H33" s="7">
         <v>32</v>
@@ -6502,13 +6538,13 @@
         <v>61240</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M33" s="7">
         <v>62</v>
@@ -6517,13 +6553,13 @@
         <v>126459</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>189</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6574,13 @@
         <v>690819</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H34" s="7">
         <v>707</v>
@@ -6553,13 +6589,13 @@
         <v>740754</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M34" s="7">
         <v>1377</v>
@@ -6568,13 +6604,13 @@
         <v>1431573</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6678,13 @@
         <v>209227</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H36" s="7">
         <v>194</v>
@@ -6657,13 +6693,13 @@
         <v>231374</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M36" s="7">
         <v>356</v>
@@ -6672,13 +6708,13 @@
         <v>440601</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6729,13 @@
         <v>359222</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="H37" s="7">
         <v>190</v>
@@ -6708,13 +6744,13 @@
         <v>352332</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M37" s="7">
         <v>363</v>
@@ -6723,13 +6759,13 @@
         <v>711554</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,13 +6780,13 @@
         <v>2858330</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H38" s="7">
         <v>2914</v>
@@ -6759,13 +6795,13 @@
         <v>2974603</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M38" s="7">
         <v>5788</v>
@@ -6774,13 +6810,13 @@
         <v>5832933</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,7 +6872,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -6860,7 +6896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFED5769-CBFC-419C-B943-7B25120DAEBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB285C6-2819-4AA1-8D1B-C98AF3DE2F7C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6877,7 +6913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6984,13 +7020,13 @@
         <v>69614</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -6999,13 +7035,13 @@
         <v>55341</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M4" s="7">
         <v>106</v>
@@ -7014,13 +7050,13 @@
         <v>124955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7071,13 @@
         <v>34069</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -7050,13 +7086,13 @@
         <v>39078</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -7065,13 +7101,13 @@
         <v>73147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7122,13 @@
         <v>190078</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H6" s="7">
         <v>200</v>
@@ -7101,13 +7137,13 @@
         <v>194284</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="M6" s="7">
         <v>393</v>
@@ -7116,13 +7152,13 @@
         <v>384362</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7226,13 @@
         <v>12241</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>469</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -7205,13 +7241,13 @@
         <v>12858</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>465</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -7220,13 +7256,13 @@
         <v>25099</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7277,13 @@
         <v>31133</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -7256,13 +7292,13 @@
         <v>24748</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>236</v>
+        <v>482</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -7271,13 +7307,13 @@
         <v>55881</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>106</v>
+        <v>484</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7328,13 @@
         <v>459201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="H10" s="7">
         <v>459</v>
@@ -7307,13 +7343,13 @@
         <v>485478</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="M10" s="7">
         <v>906</v>
@@ -7322,13 +7358,13 @@
         <v>944679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,10 +7435,10 @@
         <v>154</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -7411,13 +7447,13 @@
         <v>16776</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>488</v>
+        <v>207</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -7426,13 +7462,13 @@
         <v>21658</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>254</v>
+        <v>499</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7483,13 @@
         <v>26332</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -7462,13 +7498,13 @@
         <v>36205</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -7477,13 +7513,13 @@
         <v>62537</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>507</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7534,13 @@
         <v>287350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="H14" s="7">
         <v>294</v>
@@ -7513,13 +7549,13 @@
         <v>283328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>504</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
@@ -7528,13 +7564,13 @@
         <v>570678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7638,13 @@
         <v>35997</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -7617,13 +7653,13 @@
         <v>32380</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -7632,13 +7668,13 @@
         <v>68377</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>513</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7689,13 @@
         <v>44817</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -7668,13 +7704,13 @@
         <v>58622</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -7683,13 +7719,13 @@
         <v>103439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>532</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7740,13 @@
         <v>289150</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>524</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>293</v>
@@ -7719,13 +7755,13 @@
         <v>296281</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="M18" s="7">
         <v>592</v>
@@ -7734,13 +7770,13 @@
         <v>585430</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>315</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,7 +7832,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7808,13 +7844,13 @@
         <v>12531</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -7823,13 +7859,13 @@
         <v>15958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -7838,13 +7874,13 @@
         <v>28489</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>546</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7895,13 @@
         <v>17661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>520</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -7874,13 +7910,13 @@
         <v>14143</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>326</v>
+        <v>551</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>553</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -7889,13 +7925,13 @@
         <v>31805</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,13 +7946,13 @@
         <v>181029</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>542</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -7925,13 +7961,13 @@
         <v>188486</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>31</v>
+        <v>559</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="M22" s="7">
         <v>389</v>
@@ -7940,13 +7976,13 @@
         <v>369515</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>561</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8050,13 @@
         <v>2716</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>277</v>
+        <v>564</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -8029,13 +8065,13 @@
         <v>7671</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -8044,13 +8080,13 @@
         <v>10386</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8101,13 @@
         <v>29692</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>570</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -8080,13 +8116,13 @@
         <v>24556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>257</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -8095,13 +8131,13 @@
         <v>54247</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>556</v>
+        <v>385</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,13 +8152,13 @@
         <v>230716</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>559</v>
+        <v>63</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>576</v>
       </c>
       <c r="H26" s="7">
         <v>241</v>
@@ -8131,13 +8167,13 @@
         <v>240888</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>577</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="M26" s="7">
         <v>480</v>
@@ -8146,13 +8182,13 @@
         <v>471604</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,7 +8244,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8220,13 +8256,13 @@
         <v>24764</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -8235,13 +8271,13 @@
         <v>52861</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -8250,13 +8286,13 @@
         <v>77625</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>573</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,13 +8307,13 @@
         <v>69120</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>575</v>
+        <v>497</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -8286,13 +8322,13 @@
         <v>60412</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>417</v>
+        <v>593</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -8301,13 +8337,13 @@
         <v>129533</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,13 +8358,13 @@
         <v>562673</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="H30" s="7">
         <v>564</v>
@@ -8337,13 +8373,13 @@
         <v>578021</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>586</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>1089</v>
@@ -8352,13 +8388,13 @@
         <v>1140694</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>588</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>589</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,13 +8462,13 @@
         <v>45889</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>398</v>
+        <v>22</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>48</v>
+        <v>602</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="H32" s="7">
         <v>33</v>
@@ -8441,13 +8477,13 @@
         <v>37644</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="M32" s="7">
         <v>68</v>
@@ -8456,13 +8492,13 @@
         <v>83533</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>595</v>
+        <v>473</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8477,13 +8513,13 @@
         <v>62922</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>568</v>
+        <v>211</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="H33" s="7">
         <v>39</v>
@@ -8492,13 +8528,13 @@
         <v>68340</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="M33" s="7">
         <v>77</v>
@@ -8507,13 +8543,13 @@
         <v>131262</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>379</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8528,13 +8564,13 @@
         <v>669772</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>604</v>
+        <v>144</v>
       </c>
       <c r="H34" s="7">
         <v>683</v>
@@ -8543,13 +8579,13 @@
         <v>720183</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="M34" s="7">
         <v>1360</v>
@@ -8558,13 +8594,13 @@
         <v>1389955</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>609</v>
+        <v>247</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8668,13 @@
         <v>208635</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>493</v>
+        <v>282</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>612</v>
+        <v>505</v>
       </c>
       <c r="H36" s="7">
         <v>212</v>
@@ -8647,13 +8683,13 @@
         <v>231488</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>614</v>
+        <v>230</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>370</v>
@@ -8662,13 +8698,13 @@
         <v>440123</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>403</v>
+        <v>624</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>615</v>
+        <v>420</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>133</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8683,13 +8719,13 @@
         <v>315746</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="H37" s="7">
         <v>194</v>
@@ -8698,13 +8734,13 @@
         <v>326105</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="M37" s="7">
         <v>381</v>
@@ -8713,13 +8749,13 @@
         <v>641851</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>622</v>
+        <v>159</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8734,13 +8770,13 @@
         <v>2869969</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="H38" s="7">
         <v>2932</v>
@@ -8749,13 +8785,13 @@
         <v>2986949</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="M38" s="7">
         <v>5817</v>
@@ -8764,13 +8800,13 @@
         <v>5856918</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>630</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8826,7 +8862,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8850,7 +8886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289BB1B0-6A66-48F7-9E9D-1B6C123DEA68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87E2E8B-58AC-44D9-8731-F41D845B24E1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8867,7 +8903,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8974,13 +9010,13 @@
         <v>9730</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -8989,13 +9025,13 @@
         <v>11469</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>638</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
         <v>133</v>
@@ -9004,13 +9040,13 @@
         <v>21199</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>640</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>641</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9025,13 +9061,13 @@
         <v>25380</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -9040,13 +9076,13 @@
         <v>24193</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>82</v>
+        <v>649</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="M5" s="7">
         <v>71</v>
@@ -9055,13 +9091,13 @@
         <v>49573</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>536</v>
+        <v>652</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>653</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>646</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9076,13 +9112,13 @@
         <v>225188</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>121</v>
+        <v>656</v>
       </c>
       <c r="H6" s="7">
         <v>423</v>
@@ -9091,13 +9127,13 @@
         <v>235742</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>659</v>
       </c>
       <c r="M6" s="7">
         <v>665</v>
@@ -9106,13 +9142,13 @@
         <v>460928</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9183,10 +9219,10 @@
         <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -9195,13 +9231,13 @@
         <v>6695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>551</v>
+        <v>666</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>69</v>
+        <v>667</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
@@ -9210,13 +9246,13 @@
         <v>9885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9231,13 +9267,13 @@
         <v>32952</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>661</v>
+        <v>258</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -9246,13 +9282,13 @@
         <v>25680</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>665</v>
+        <v>606</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -9261,13 +9297,13 @@
         <v>58632</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>332</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>636</v>
+        <v>675</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9282,13 +9318,13 @@
         <v>483155</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>678</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>679</v>
       </c>
       <c r="H10" s="7">
         <v>638</v>
@@ -9297,13 +9333,13 @@
         <v>520729</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="M10" s="7">
         <v>977</v>
@@ -9312,13 +9348,13 @@
         <v>1003883</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>684</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9386,13 +9422,13 @@
         <v>1756</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -9401,13 +9437,13 @@
         <v>2227</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>675</v>
+        <v>152</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -9416,13 +9452,13 @@
         <v>3983</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>678</v>
+        <v>279</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9437,13 +9473,13 @@
         <v>6822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -9452,13 +9488,13 @@
         <v>14507</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -9467,13 +9503,13 @@
         <v>21330</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>686</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9488,13 +9524,13 @@
         <v>313662</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="H14" s="7">
         <v>500</v>
@@ -9503,13 +9539,13 @@
         <v>354043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>692</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="M14" s="7">
         <v>842</v>
@@ -9518,13 +9554,13 @@
         <v>667705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9592,13 +9628,13 @@
         <v>4473</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -9607,13 +9643,13 @@
         <v>5563</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>713</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -9622,13 +9658,13 @@
         <v>10036</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9643,13 +9679,13 @@
         <v>25830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>619</v>
+        <v>715</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>702</v>
+        <v>607</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>716</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -9658,13 +9694,13 @@
         <v>27145</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>703</v>
+        <v>518</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>718</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -9673,13 +9709,13 @@
         <v>52975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>706</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9694,13 +9730,13 @@
         <v>291937</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="H18" s="7">
         <v>518</v>
@@ -9709,13 +9745,13 @@
         <v>369195</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="M18" s="7">
         <v>756</v>
@@ -9724,13 +9760,13 @@
         <v>661132</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9786,7 +9822,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9798,13 +9834,13 @@
         <v>3192</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>730</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>548</v>
+        <v>731</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -9813,13 +9849,13 @@
         <v>3498</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="M20" s="7">
         <v>42</v>
@@ -9828,13 +9864,13 @@
         <v>6689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>735</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>722</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9849,13 +9885,13 @@
         <v>1516</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>76</v>
+        <v>694</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -9864,13 +9900,13 @@
         <v>4788</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>325</v>
+        <v>664</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -9879,13 +9915,13 @@
         <v>6304</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>474</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9900,13 +9936,13 @@
         <v>192040</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="H22" s="7">
         <v>458</v>
@@ -9915,13 +9951,13 @@
         <v>221089</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="M22" s="7">
         <v>715</v>
@@ -9930,13 +9966,13 @@
         <v>413130</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10004,13 +10040,13 @@
         <v>2235</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -10019,13 +10055,13 @@
         <v>2071</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>466</v>
+        <v>757</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -10034,13 +10070,13 @@
         <v>4306</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10055,13 +10091,13 @@
         <v>9681</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>550</v>
+        <v>762</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>745</v>
+        <v>22</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -10070,13 +10106,13 @@
         <v>10491</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>746</v>
+        <v>495</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>12</v>
+        <v>764</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -10085,13 +10121,13 @@
         <v>20172</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>749</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10106,13 +10142,13 @@
         <v>265307</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>64</v>
+        <v>767</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H26" s="7">
         <v>430</v>
@@ -10121,13 +10157,13 @@
         <v>262115</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="M26" s="7">
         <v>774</v>
@@ -10136,13 +10172,13 @@
         <v>527421</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10198,7 +10234,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10210,13 +10246,13 @@
         <v>9900</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>758</v>
+        <v>149</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="H28" s="7">
         <v>134</v>
@@ -10225,13 +10261,13 @@
         <v>21366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -10240,10 +10276,10 @@
         <v>31267</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>203</v>
@@ -10261,13 +10297,13 @@
         <v>64161</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>765</v>
+        <v>241</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -10276,13 +10312,13 @@
         <v>62056</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>104</v>
+        <v>784</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="M29" s="7">
         <v>140</v>
@@ -10291,13 +10327,13 @@
         <v>126216</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>492</v>
+        <v>787</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10312,13 +10348,13 @@
         <v>548998</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>771</v>
+        <v>36</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="H30" s="7">
         <v>741</v>
@@ -10327,13 +10363,13 @@
         <v>608458</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>775</v>
+        <v>633</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="M30" s="7">
         <v>1219</v>
@@ -10342,13 +10378,13 @@
         <v>1157456</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>118</v>
+        <v>795</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10419,10 +10455,10 @@
         <v>155</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -10431,13 +10467,13 @@
         <v>6051</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -10446,13 +10482,13 @@
         <v>10998</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>742</v>
+        <v>800</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10467,13 +10503,13 @@
         <v>14562</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>784</v>
+        <v>43</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>785</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -10482,13 +10518,13 @@
         <v>12816</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>737</v>
+        <v>797</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>397</v>
       </c>
       <c r="M33" s="7">
         <v>27</v>
@@ -10497,13 +10533,13 @@
         <v>27378</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>787</v>
+        <v>398</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>463</v>
+        <v>803</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>763</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10518,13 +10554,13 @@
         <v>788339</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="H34" s="7">
         <v>1009</v>
@@ -10533,13 +10569,13 @@
         <v>839296</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="M34" s="7">
         <v>1725</v>
@@ -10548,13 +10584,13 @@
         <v>1627635</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10622,13 +10658,13 @@
         <v>39425</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>325</v>
+        <v>690</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="H36" s="7">
         <v>370</v>
@@ -10637,13 +10673,13 @@
         <v>58939</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>798</v>
+        <v>667</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="M36" s="7">
         <v>617</v>
@@ -10652,10 +10688,10 @@
         <v>98364</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>802</v>
+        <v>329</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>154</v>
@@ -10673,13 +10709,13 @@
         <v>180904</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>663</v>
+        <v>818</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>804</v>
+        <v>624</v>
       </c>
       <c r="H37" s="7">
         <v>261</v>
@@ -10688,13 +10724,13 @@
         <v>181674</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>806</v>
+        <v>212</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>356</v>
+        <v>820</v>
       </c>
       <c r="M37" s="7">
         <v>432</v>
@@ -10703,13 +10739,13 @@
         <v>362578</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>57</v>
+        <v>480</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>808</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10724,13 +10760,13 @@
         <v>3108625</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>809</v>
+        <v>723</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="H38" s="7">
         <v>4717</v>
@@ -10739,13 +10775,13 @@
         <v>3410665</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="M38" s="7">
         <v>7673</v>
@@ -10754,13 +10790,13 @@
         <v>6519290</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10816,7 +10852,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P58-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P58-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8440D816-7D7A-4B4F-A59F-B129B7BAF023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C54DF2D0-C410-4F9C-B92F-0C4FEC0AAAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8BA70656-9717-42D3-8299-2B965CEAA5BD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5F4BE022-2F0C-406B-8F59-1D4414315E76}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="838">
   <si>
     <t>Población según su lugar de nacimiento en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -797,7 +797,85 @@
     <t>Población según su lugar de nacimiento en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
   </si>
   <si>
     <t>3,64%</t>
@@ -938,699 +1016,705 @@
     <t>92,49%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
   </si>
   <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>Población según su lugar de nacimiento en 2016 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
     <t>5,93%</t>
   </si>
   <si>
@@ -1664,9 +1748,6 @@
     <t>7,4%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
     <t>85,71%</t>
   </si>
   <si>
@@ -1940,559 +2021,538 @@
     <t>Población según su lugar de nacimiento en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
 </sst>
 </file>
@@ -2904,7 +2964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B8FD2F-886F-4002-AACD-76EE2A97E540}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E8E852-5CBC-4AF5-B068-12CB7E95CD2B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4894,7 +4954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71BDB3-6961-4690-AB61-2A4C6D707831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2584B53-6927-46C3-BC28-0FBD62FAC5B8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5012,43 +5072,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D4" s="7">
+        <v>57021</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="I4" s="7">
+        <v>43019</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="N4" s="7">
+        <v>100041</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,43 +5123,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>40156</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>44476</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N5" s="7">
+        <v>84632</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,43 +5174,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="D6" s="7">
+        <v>197561</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="I6" s="7">
+        <v>199749</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>411</v>
+      </c>
+      <c r="N6" s="7">
+        <v>397310</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,43 +5225,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5284,13 @@
         <v>18383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5218,7 +5302,7 @@
         <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>184</v>
@@ -5230,10 +5314,10 @@
         <v>39491</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>84</v>
@@ -5251,13 +5335,13 @@
         <v>65420</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -5269,10 +5353,10 @@
         <v>113</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -5281,13 +5365,13 @@
         <v>118789</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5386,13 @@
         <v>421724</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -5317,13 +5401,13 @@
         <v>449288</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>862</v>
@@ -5332,13 +5416,13 @@
         <v>871012</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,10 +5493,10 @@
         <v>149</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -5421,13 +5505,13 @@
         <v>9579</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -5436,13 +5520,13 @@
         <v>13593</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,10 +5544,10 @@
         <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5472,13 +5556,13 @@
         <v>31858</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -5493,7 +5577,7 @@
         <v>124</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5592,13 @@
         <v>297568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="H14" s="7">
         <v>292</v>
@@ -5523,13 +5607,13 @@
         <v>299583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
         <v>597</v>
@@ -5538,13 +5622,13 @@
         <v>597151</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,49 +5690,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>76348</v>
+        <v>19327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>327</v>
       </c>
       <c r="H16" s="7">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>61196</v>
+        <v>18176</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>47</v>
       </c>
       <c r="M16" s="7">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="N16" s="7">
-        <v>137544</v>
+        <v>37504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,49 +5741,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>78764</v>
+        <v>38608</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>84510</v>
+        <v>40034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="M17" s="7">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>163274</v>
+        <v>78642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,49 +5792,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>526</v>
+        <v>311</v>
       </c>
       <c r="D18" s="7">
-        <v>513608</v>
+        <v>316047</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H18" s="7">
-        <v>528</v>
+        <v>332</v>
       </c>
       <c r="I18" s="7">
-        <v>530490</v>
+        <v>330740</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="M18" s="7">
-        <v>1054</v>
+        <v>643</v>
       </c>
       <c r="N18" s="7">
-        <v>1044098</v>
+        <v>646787</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>346</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5774,10 +5858,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5789,10 +5873,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5818,13 +5902,13 @@
         <v>6963</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5833,13 +5917,13 @@
         <v>6910</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -5848,10 +5932,10 @@
         <v>13873</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>124</v>
@@ -5869,13 +5953,13 @@
         <v>15897</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -5884,13 +5968,13 @@
         <v>18005</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>151</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -5899,13 +5983,13 @@
         <v>33902</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,10 +6007,10 @@
         <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>196</v>
@@ -5935,13 +6019,13 @@
         <v>194676</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>379</v>
@@ -5950,13 +6034,13 @@
         <v>384434</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>343</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,7 +6114,7 @@
         <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6042,7 +6126,7 @@
         <v>103</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>56</v>
@@ -6054,13 +6138,13 @@
         <v>14391</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,10 +6162,10 @@
         <v>235</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -6090,13 +6174,13 @@
         <v>19981</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6105,13 +6189,13 @@
         <v>46582</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,10 +6210,10 @@
         <v>242425</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>94</v>
@@ -6141,13 +6225,13 @@
         <v>250615</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="M26" s="7">
         <v>494</v>
@@ -6159,10 +6243,10 @@
         <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,13 +6314,13 @@
         <v>75503</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="H28" s="7">
         <v>85</v>
@@ -6245,13 +6329,13 @@
         <v>101288</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M28" s="7">
         <v>143</v>
@@ -6260,13 +6344,13 @@
         <v>176791</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,10 +6368,10 @@
         <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -6296,13 +6380,13 @@
         <v>83368</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="M29" s="7">
         <v>86</v>
@@ -6311,13 +6395,13 @@
         <v>168226</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6416,13 @@
         <v>502427</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="H30" s="7">
         <v>506</v>
@@ -6347,13 +6431,13 @@
         <v>509198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="M30" s="7">
         <v>1025</v>
@@ -6362,13 +6446,13 @@
         <v>1011624</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6520,13 @@
         <v>23060</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -6451,10 +6535,10 @@
         <v>21859</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>204</v>
@@ -6466,10 +6550,10 @@
         <v>44919</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>106</v>
@@ -6487,13 +6571,13 @@
         <v>65219</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="H33" s="7">
         <v>32</v>
@@ -6505,10 +6589,10 @@
         <v>83</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="M33" s="7">
         <v>62</v>
@@ -6517,10 +6601,10 @@
         <v>126459</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>189</v>
@@ -6538,13 +6622,13 @@
         <v>690819</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="H34" s="7">
         <v>707</v>
@@ -6556,10 +6640,10 @@
         <v>219</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="M34" s="7">
         <v>1377</v>
@@ -6568,13 +6652,13 @@
         <v>1431573</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6726,13 @@
         <v>209227</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>225</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="H36" s="7">
         <v>194</v>
@@ -6657,13 +6741,13 @@
         <v>231374</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="M36" s="7">
         <v>356</v>
@@ -6672,13 +6756,13 @@
         <v>440601</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>208</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6777,13 @@
         <v>359222</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="H37" s="7">
         <v>190</v>
@@ -6708,13 +6792,13 @@
         <v>352332</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="M37" s="7">
         <v>363</v>
@@ -6726,10 +6810,10 @@
         <v>113</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,13 +6828,13 @@
         <v>2858330</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="H38" s="7">
         <v>2914</v>
@@ -6759,13 +6843,13 @@
         <v>2974603</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="M38" s="7">
         <v>5788</v>
@@ -6774,13 +6858,13 @@
         <v>5832933</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,7 +6944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DE806D-4086-4971-A221-11DD0E9B5F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8D01AD-33FA-41C8-81F5-EAB4500FF343}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6877,7 +6961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6984,13 +7068,13 @@
         <v>69614</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -6999,13 +7083,13 @@
         <v>55341</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>106</v>
@@ -7014,13 +7098,13 @@
         <v>124955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7119,13 @@
         <v>34069</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -7050,13 +7134,13 @@
         <v>39078</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -7065,13 +7149,13 @@
         <v>73147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7170,13 @@
         <v>190078</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="H6" s="7">
         <v>200</v>
@@ -7101,13 +7185,13 @@
         <v>194284</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="M6" s="7">
         <v>393</v>
@@ -7116,13 +7200,13 @@
         <v>384362</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,10 +7277,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -7205,13 +7289,13 @@
         <v>12858</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -7220,13 +7304,13 @@
         <v>25099</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7325,13 @@
         <v>31133</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -7256,10 +7340,10 @@
         <v>24748</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>236</v>
@@ -7271,13 +7355,13 @@
         <v>55881</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>106</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7376,13 @@
         <v>459201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="H10" s="7">
         <v>459</v>
@@ -7307,13 +7391,13 @@
         <v>485478</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="M10" s="7">
         <v>906</v>
@@ -7322,13 +7406,13 @@
         <v>944679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,10 +7483,10 @@
         <v>154</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -7411,13 +7495,13 @@
         <v>16776</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -7426,13 +7510,13 @@
         <v>21658</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7531,13 @@
         <v>26332</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -7462,13 +7546,13 @@
         <v>36205</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -7477,13 +7561,13 @@
         <v>62537</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7582,13 @@
         <v>287350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="H14" s="7">
         <v>294</v>
@@ -7513,13 +7597,13 @@
         <v>283328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
@@ -7528,13 +7612,13 @@
         <v>570678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7686,13 @@
         <v>35997</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -7623,7 +7707,7 @@
         <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -7632,13 +7716,13 @@
         <v>68377</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7737,13 @@
         <v>44817</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -7668,13 +7752,13 @@
         <v>58622</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -7683,13 +7767,13 @@
         <v>103439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7788,13 @@
         <v>289150</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="H18" s="7">
         <v>293</v>
@@ -7719,13 +7803,13 @@
         <v>296281</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="M18" s="7">
         <v>592</v>
@@ -7734,13 +7818,13 @@
         <v>585430</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>315</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7892,13 @@
         <v>12531</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -7823,13 +7907,13 @@
         <v>15958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -7841,10 +7925,10 @@
         <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,10 +7946,10 @@
         <v>98</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -7874,10 +7958,10 @@
         <v>14143</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>138</v>
@@ -7889,13 +7973,13 @@
         <v>31805</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>163</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>541</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,13 +7994,13 @@
         <v>181029</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -7925,13 +8009,13 @@
         <v>188486</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>389</v>
@@ -7946,7 +8030,7 @@
         <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8098,13 @@
         <v>2716</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -8029,13 +8113,13 @@
         <v>7671</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -8044,13 +8128,13 @@
         <v>10386</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8149,13 @@
         <v>29692</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -8080,13 +8164,13 @@
         <v>24556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -8095,13 +8179,13 @@
         <v>54247</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,13 +8200,13 @@
         <v>230716</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="H26" s="7">
         <v>241</v>
@@ -8134,10 +8218,10 @@
         <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="M26" s="7">
         <v>480</v>
@@ -8146,13 +8230,13 @@
         <v>471604</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,13 +8304,13 @@
         <v>24764</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -8235,13 +8319,13 @@
         <v>52861</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -8253,10 +8337,10 @@
         <v>80</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,13 +8355,13 @@
         <v>69120</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -8286,13 +8370,13 @@
         <v>60412</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -8301,13 +8385,13 @@
         <v>129533</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,10 +8409,10 @@
         <v>247</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="H30" s="7">
         <v>564</v>
@@ -8337,13 +8421,13 @@
         <v>578021</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="M30" s="7">
         <v>1089</v>
@@ -8352,13 +8436,13 @@
         <v>1140694</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,13 +8510,13 @@
         <v>45889</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="H32" s="7">
         <v>33</v>
@@ -8441,13 +8525,13 @@
         <v>37644</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="M32" s="7">
         <v>68</v>
@@ -8456,10 +8540,10 @@
         <v>83533</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>44</v>
@@ -8477,13 +8561,13 @@
         <v>62922</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="H33" s="7">
         <v>39</v>
@@ -8492,13 +8576,13 @@
         <v>68340</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="M33" s="7">
         <v>77</v>
@@ -8507,13 +8591,13 @@
         <v>131262</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8528,13 +8612,13 @@
         <v>669772</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="H34" s="7">
         <v>683</v>
@@ -8543,13 +8627,13 @@
         <v>720183</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="M34" s="7">
         <v>1360</v>
@@ -8558,13 +8642,13 @@
         <v>1389955</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8716,13 @@
         <v>208635</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="H36" s="7">
         <v>212</v>
@@ -8647,10 +8731,10 @@
         <v>231488</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>83</v>
@@ -8662,10 +8746,10 @@
         <v>440123</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>133</v>
@@ -8683,13 +8767,13 @@
         <v>315746</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="H37" s="7">
         <v>194</v>
@@ -8698,13 +8782,13 @@
         <v>326105</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="M37" s="7">
         <v>381</v>
@@ -8713,13 +8797,13 @@
         <v>641851</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8737,10 +8821,10 @@
         <v>245</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="H38" s="7">
         <v>2932</v>
@@ -8749,13 +8833,13 @@
         <v>2986949</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="M38" s="7">
         <v>5817</v>
@@ -8764,13 +8848,13 @@
         <v>5856918</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8850,7 +8934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC4E876-12B3-4351-8BA9-063E921D625D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37794379-6FD8-4FB2-B384-587211350382}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8867,7 +8951,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8971,46 +9055,46 @@
         <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>9730</v>
+        <v>10258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>633</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>634</v>
+        <v>492</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
       </c>
       <c r="I4" s="7">
-        <v>11469</v>
+        <v>11988</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>636</v>
+        <v>204</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="M4" s="7">
         <v>133</v>
       </c>
       <c r="N4" s="7">
-        <v>21199</v>
+        <v>22246</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>640</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>641</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9022,46 +9106,46 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>25380</v>
+        <v>30313</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>642</v>
+        <v>535</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>576</v>
+        <v>665</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>24193</v>
+        <v>25723</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>82</v>
+        <v>666</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="M5" s="7">
         <v>71</v>
       </c>
       <c r="N5" s="7">
-        <v>49573</v>
+        <v>56036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>669</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9073,46 +9157,46 @@
         <v>242</v>
       </c>
       <c r="D6" s="7">
-        <v>225188</v>
+        <v>270872</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="H6" s="7">
         <v>423</v>
       </c>
       <c r="I6" s="7">
-        <v>235742</v>
+        <v>251924</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>118</v>
+        <v>676</v>
       </c>
       <c r="M6" s="7">
         <v>665</v>
       </c>
       <c r="N6" s="7">
-        <v>460928</v>
+        <v>522795</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9124,7 +9208,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -9139,7 +9223,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -9154,7 +9238,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -9177,46 +9261,46 @@
         <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>3191</v>
+        <v>3262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>679</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>654</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
       </c>
       <c r="I8" s="7">
-        <v>6695</v>
+        <v>6785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>656</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>551</v>
+        <v>681</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>69</v>
+        <v>682</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
       </c>
       <c r="N8" s="7">
-        <v>9885</v>
+        <v>10047</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9228,46 +9312,46 @@
         <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>32952</v>
+        <v>32493</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>662</v>
+        <v>448</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
       </c>
       <c r="I9" s="7">
-        <v>25680</v>
+        <v>23930</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>664</v>
+        <v>81</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
       </c>
       <c r="N9" s="7">
-        <v>58632</v>
+        <v>56423</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>636</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9279,46 +9363,46 @@
         <v>339</v>
       </c>
       <c r="D10" s="7">
-        <v>483155</v>
+        <v>482635</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>690</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>691</v>
       </c>
       <c r="H10" s="7">
         <v>638</v>
       </c>
       <c r="I10" s="7">
-        <v>520729</v>
+        <v>482921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
       <c r="M10" s="7">
         <v>977</v>
       </c>
       <c r="N10" s="7">
-        <v>1003883</v>
+        <v>965556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>696</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9330,7 +9414,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -9345,7 +9429,7 @@
         <v>715</v>
       </c>
       <c r="I11" s="7">
-        <v>553103</v>
+        <v>513636</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -9360,7 +9444,7 @@
         <v>1097</v>
       </c>
       <c r="N11" s="7">
-        <v>1072400</v>
+        <v>1032026</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -9383,46 +9467,46 @@
         <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>1756</v>
+        <v>1804</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>672</v>
+        <v>698</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>2227</v>
+        <v>2260</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>674</v>
+        <v>353</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
       </c>
       <c r="N12" s="7">
-        <v>3983</v>
+        <v>4064</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>677</v>
+        <v>155</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>678</v>
+        <v>302</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>679</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9434,46 +9518,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>6822</v>
+        <v>6623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>680</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>682</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>14507</v>
+        <v>13550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>685</v>
+        <v>706</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>21330</v>
+        <v>20174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>687</v>
+        <v>708</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9485,46 +9569,46 @@
         <v>342</v>
       </c>
       <c r="D14" s="7">
-        <v>313662</v>
+        <v>307623</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="H14" s="7">
         <v>500</v>
       </c>
       <c r="I14" s="7">
-        <v>354043</v>
+        <v>330595</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="M14" s="7">
         <v>842</v>
       </c>
       <c r="N14" s="7">
-        <v>667705</v>
+        <v>638218</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9536,7 +9620,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -9551,7 +9635,7 @@
         <v>535</v>
       </c>
       <c r="I15" s="7">
-        <v>370777</v>
+        <v>346406</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -9566,7 +9650,7 @@
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>693017</v>
+        <v>662456</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -9589,46 +9673,46 @@
         <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>4473</v>
+        <v>4568</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>5563</v>
+        <v>5626</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>10036</v>
+        <v>10194</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>490</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9640,46 +9724,46 @@
         <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>25830</v>
+        <v>24403</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>619</v>
+        <v>725</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>727</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
       </c>
       <c r="I17" s="7">
-        <v>27145</v>
+        <v>25222</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>730</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>52975</v>
+        <v>49624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,46 +9775,46 @@
         <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>291937</v>
+        <v>283586</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>709</v>
+        <v>249</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="H18" s="7">
         <v>518</v>
       </c>
       <c r="I18" s="7">
-        <v>369195</v>
+        <v>340993</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>711</v>
+        <v>736</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="M18" s="7">
         <v>756</v>
       </c>
       <c r="N18" s="7">
-        <v>661132</v>
+        <v>624580</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>715</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9742,7 +9826,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -9757,7 +9841,7 @@
         <v>595</v>
       </c>
       <c r="I19" s="7">
-        <v>401903</v>
+        <v>371841</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -9772,7 +9856,7 @@
         <v>887</v>
       </c>
       <c r="N19" s="7">
-        <v>724143</v>
+        <v>684398</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -9795,46 +9879,46 @@
         <v>20</v>
       </c>
       <c r="D20" s="7">
-        <v>3192</v>
+        <v>3219</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>741</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>548</v>
+        <v>742</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>717</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
       </c>
       <c r="I20" s="7">
-        <v>3498</v>
+        <v>3486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="M20" s="7">
         <v>42</v>
       </c>
       <c r="N20" s="7">
-        <v>6689</v>
+        <v>6705</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>746</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>721</v>
+        <v>350</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9846,7 +9930,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>1516</v>
+        <v>1368</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>76</v>
@@ -9855,37 +9939,37 @@
         <v>150</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
       </c>
       <c r="I21" s="7">
-        <v>4788</v>
+        <v>4262</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>325</v>
+        <v>750</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>725</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>6304</v>
+        <v>5630</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>727</v>
+        <v>683</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>474</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9897,46 +9981,46 @@
         <v>257</v>
       </c>
       <c r="D22" s="7">
-        <v>192040</v>
+        <v>174155</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>728</v>
+        <v>751</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>729</v>
+        <v>752</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="H22" s="7">
         <v>458</v>
       </c>
       <c r="I22" s="7">
-        <v>221089</v>
+        <v>198549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>731</v>
+        <v>754</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>732</v>
+        <v>755</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>733</v>
+        <v>756</v>
       </c>
       <c r="M22" s="7">
         <v>715</v>
       </c>
       <c r="N22" s="7">
-        <v>413130</v>
+        <v>372704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>734</v>
+        <v>757</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9948,7 +10032,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -9963,7 +10047,7 @@
         <v>489</v>
       </c>
       <c r="I23" s="7">
-        <v>229375</v>
+        <v>206297</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -9978,7 +10062,7 @@
         <v>768</v>
       </c>
       <c r="N23" s="7">
-        <v>426123</v>
+        <v>385039</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -10001,46 +10085,46 @@
         <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>2235</v>
+        <v>2286</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>737</v>
+        <v>760</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>739</v>
+        <v>762</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>2071</v>
+        <v>2092</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>727</v>
+        <v>763</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>466</v>
+        <v>765</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
       </c>
       <c r="N24" s="7">
-        <v>4306</v>
+        <v>4378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10052,46 +10136,46 @@
         <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>9681</v>
+        <v>9269</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>744</v>
+        <v>769</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>550</v>
+        <v>770</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>745</v>
+        <v>595</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
       </c>
       <c r="I25" s="7">
-        <v>10491</v>
+        <v>9681</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>746</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>12</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
       </c>
       <c r="N25" s="7">
-        <v>20172</v>
+        <v>18951</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10103,46 +10187,46 @@
         <v>344</v>
       </c>
       <c r="D26" s="7">
-        <v>265307</v>
+        <v>258080</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>64</v>
+        <v>775</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
       <c r="H26" s="7">
         <v>430</v>
       </c>
       <c r="I26" s="7">
-        <v>262115</v>
+        <v>244401</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="M26" s="7">
         <v>774</v>
       </c>
       <c r="N26" s="7">
-        <v>527421</v>
+        <v>502482</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10154,7 +10238,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -10169,7 +10253,7 @@
         <v>459</v>
       </c>
       <c r="I27" s="7">
-        <v>274676</v>
+        <v>256174</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -10184,7 +10268,7 @@
         <v>830</v>
       </c>
       <c r="N27" s="7">
-        <v>551899</v>
+        <v>525810</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -10207,46 +10291,46 @@
         <v>62</v>
       </c>
       <c r="D28" s="7">
-        <v>9900</v>
+        <v>10133</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>757</v>
+        <v>373</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>758</v>
+        <v>350</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="H28" s="7">
         <v>134</v>
       </c>
       <c r="I28" s="7">
-        <v>21366</v>
+        <v>21616</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>760</v>
+        <v>567</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>761</v>
+        <v>784</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>762</v>
+        <v>785</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
       </c>
       <c r="N28" s="7">
-        <v>31267</v>
+        <v>31748</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>763</v>
+        <v>157</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>787</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10258,46 +10342,46 @@
         <v>58</v>
       </c>
       <c r="D29" s="7">
-        <v>64161</v>
+        <v>62674</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>764</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>766</v>
+        <v>789</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
       </c>
       <c r="I29" s="7">
-        <v>62056</v>
+        <v>57608</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>767</v>
+        <v>393</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>104</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="M29" s="7">
         <v>140</v>
       </c>
       <c r="N29" s="7">
-        <v>126216</v>
+        <v>120282</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10309,46 +10393,46 @@
         <v>478</v>
       </c>
       <c r="D30" s="7">
-        <v>548998</v>
+        <v>542512</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>773</v>
+        <v>573</v>
       </c>
       <c r="H30" s="7">
         <v>741</v>
       </c>
       <c r="I30" s="7">
-        <v>608458</v>
+        <v>563736</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>774</v>
+        <v>586</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>776</v>
+        <v>690</v>
       </c>
       <c r="M30" s="7">
         <v>1219</v>
       </c>
       <c r="N30" s="7">
-        <v>1157456</v>
+        <v>1106249</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>118</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10360,7 +10444,7 @@
         <v>598</v>
       </c>
       <c r="D31" s="7">
-        <v>623059</v>
+        <v>615318</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -10375,7 +10459,7 @@
         <v>957</v>
       </c>
       <c r="I31" s="7">
-        <v>691880</v>
+        <v>642960</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -10390,7 +10474,7 @@
         <v>1555</v>
       </c>
       <c r="N31" s="7">
-        <v>1314939</v>
+        <v>1258279</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -10413,46 +10497,46 @@
         <v>31</v>
       </c>
       <c r="D32" s="7">
-        <v>4948</v>
+        <v>4972</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>155</v>
+        <v>799</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>779</v>
+        <v>73</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
       </c>
       <c r="I32" s="7">
-        <v>6051</v>
+        <v>6031</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>70</v>
+        <v>800</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>655</v>
+        <v>801</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
       </c>
       <c r="N32" s="7">
-        <v>10998</v>
+        <v>11003</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>742</v>
+        <v>803</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>783</v>
+        <v>681</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10464,46 +10548,46 @@
         <v>14</v>
       </c>
       <c r="D33" s="7">
-        <v>14562</v>
+        <v>12259</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>784</v>
+        <v>804</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>719</v>
+        <v>805</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
       </c>
       <c r="I33" s="7">
-        <v>12816</v>
+        <v>10240</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>737</v>
+        <v>802</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>808</v>
       </c>
       <c r="M33" s="7">
         <v>27</v>
       </c>
       <c r="N33" s="7">
-        <v>27378</v>
+        <v>22499</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>463</v>
+        <v>810</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>763</v>
+        <v>811</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10515,46 +10599,46 @@
         <v>716</v>
       </c>
       <c r="D34" s="7">
-        <v>788339</v>
+        <v>666808</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
       <c r="H34" s="7">
         <v>1009</v>
       </c>
       <c r="I34" s="7">
-        <v>839296</v>
+        <v>693571</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>736</v>
+        <v>815</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>791</v>
+        <v>816</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>792</v>
+        <v>817</v>
       </c>
       <c r="M34" s="7">
         <v>1725</v>
       </c>
       <c r="N34" s="7">
-        <v>1627635</v>
+        <v>1360379</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>794</v>
+        <v>819</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10566,7 +10650,7 @@
         <v>761</v>
       </c>
       <c r="D35" s="7">
-        <v>807849</v>
+        <v>684040</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -10581,7 +10665,7 @@
         <v>1060</v>
       </c>
       <c r="I35" s="7">
-        <v>858162</v>
+        <v>709841</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -10596,7 +10680,7 @@
         <v>1821</v>
       </c>
       <c r="N35" s="7">
-        <v>1666011</v>
+        <v>1393881</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -10619,46 +10703,46 @@
         <v>247</v>
       </c>
       <c r="D36" s="7">
-        <v>39425</v>
+        <v>40502</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>796</v>
+        <v>350</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="H36" s="7">
         <v>370</v>
       </c>
       <c r="I36" s="7">
-        <v>58939</v>
+        <v>59884</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
       <c r="M36" s="7">
         <v>617</v>
       </c>
       <c r="N36" s="7">
-        <v>98364</v>
+        <v>100386</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>801</v>
+        <v>154</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>802</v>
+        <v>822</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>154</v>
+        <v>823</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10670,46 +10754,46 @@
         <v>171</v>
       </c>
       <c r="D37" s="7">
-        <v>180904</v>
+        <v>179403</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>663</v>
+        <v>825</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="H37" s="7">
         <v>261</v>
       </c>
       <c r="I37" s="7">
-        <v>181674</v>
+        <v>170215</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>356</v>
+        <v>829</v>
       </c>
       <c r="M37" s="7">
         <v>432</v>
       </c>
       <c r="N37" s="7">
-        <v>362578</v>
+        <v>349618</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>807</v>
+        <v>306</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>57</v>
+        <v>830</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>808</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10721,46 +10805,46 @@
         <v>2956</v>
       </c>
       <c r="D38" s="7">
-        <v>3108625</v>
+        <v>2986271</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>810</v>
+        <v>693</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>811</v>
+        <v>832</v>
       </c>
       <c r="H38" s="7">
         <v>4717</v>
       </c>
       <c r="I38" s="7">
-        <v>3410665</v>
+        <v>3106690</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>812</v>
+        <v>689</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>814</v>
+        <v>834</v>
       </c>
       <c r="M38" s="7">
         <v>7673</v>
       </c>
       <c r="N38" s="7">
-        <v>6519290</v>
+        <v>6092961</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>817</v>
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10772,7 +10856,7 @@
         <v>3374</v>
       </c>
       <c r="D39" s="7">
-        <v>3328954</v>
+        <v>3206176</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -10787,7 +10871,7 @@
         <v>5348</v>
       </c>
       <c r="I39" s="7">
-        <v>3651278</v>
+        <v>3336790</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -10802,7 +10886,7 @@
         <v>8722</v>
       </c>
       <c r="N39" s="7">
-        <v>6980232</v>
+        <v>6542966</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
